--- a/reuslt-analysis/cov-statistic.xlsx
+++ b/reuslt-analysis/cov-statistic.xlsx
@@ -1,43 +1,539 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="30480" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+  <si>
+    <t>测试文件</t>
+  </si>
+  <si>
+    <t>测试工具</t>
+  </si>
+  <si>
+    <t>行覆盖率</t>
+  </si>
+  <si>
+    <t>函数覆盖率</t>
+  </si>
+  <si>
+    <t>覆盖行数/总行数</t>
+  </si>
+  <si>
+    <t>覆盖函数/总函数数量</t>
+  </si>
+  <si>
+    <t>Cxxfilt</t>
+  </si>
+  <si>
+    <t>afl</t>
+  </si>
+  <si>
+    <t>22/108</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>AFL++</t>
+  </si>
+  <si>
+    <t>29/108</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>Angora</t>
+  </si>
+  <si>
+    <t>43/108</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>80/968</t>
+  </si>
+  <si>
+    <t>6/48</t>
+  </si>
+  <si>
+    <t>205/997</t>
+  </si>
+  <si>
+    <t>20/62</t>
+  </si>
+  <si>
+    <t>83/997</t>
+  </si>
+  <si>
+    <t>8/62</t>
+  </si>
+  <si>
+    <t>Objdump</t>
+  </si>
+  <si>
+    <t>5122/2723</t>
+  </si>
+  <si>
+    <t>25/95</t>
+  </si>
+  <si>
+    <t>557/2757</t>
+  </si>
+  <si>
+    <t>36/112</t>
+  </si>
+  <si>
+    <t>693/2757</t>
+  </si>
+  <si>
+    <t>43/112</t>
+  </si>
+  <si>
+    <t>Readelf</t>
+  </si>
+  <si>
+    <t>2744/12305</t>
+  </si>
+  <si>
+    <t>99/277</t>
+  </si>
+  <si>
+    <t>3374/15933</t>
+  </si>
+  <si>
+    <t>114/356</t>
+  </si>
+  <si>
+    <t>4336/15933</t>
+  </si>
+  <si>
+    <t>142/356</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>91/308</t>
+  </si>
+  <si>
+    <t>7/15</t>
+  </si>
+  <si>
+    <t>108/326</t>
+  </si>
+  <si>
+    <t>11/24</t>
+  </si>
+  <si>
+    <t>Xpdf</t>
+  </si>
+  <si>
+    <t>32/47</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>11/47</t>
+  </si>
+  <si>
+    <t>Libxml2</t>
+  </si>
+  <si>
+    <t>204/1777</t>
+  </si>
+  <si>
+    <t>3/60</t>
+  </si>
+  <si>
+    <t>80/1777</t>
+  </si>
+  <si>
+    <t>2/60</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,27 +541,1601 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>AFL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>，</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>AFL++</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>和</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Angora</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>的测试结果</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.125924468922109"/>
+          <c:y val="0.276282177245038"/>
+          <c:w val="0.83375295043273"/>
+          <c:h val="0.402279426213401"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>行覆盖率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cxxfilt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Nm</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Objdump</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Readelf</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Size</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Xpdf</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Libxml2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.272</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.681</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>函数覆盖率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Angora</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>afl</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>AFL++</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cxxfilt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Nm</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Objdump</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Readelf</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Size</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Xpdf</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Libxml2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="0%">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.357</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.467</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.458</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="357076123"/>
+        <c:axId val="982779713"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="357076123"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982779713"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="982779713"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357076123"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="17780" y="3325495"/>
+        <a:ext cx="6426200" cy="3290570"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -111,7 +2181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +2216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -320,23 +2390,480 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <cols>
+    <col min="3" max="3" width="10.3035714285714" customWidth="1"/>
+    <col min="4" max="4" width="11.2053571428571" customWidth="1"/>
+    <col min="5" max="5" width="16.5982142857143" customWidth="1"/>
+    <col min="6" max="6" width="19.1071428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.204</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.269</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.398</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.083</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.206</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.323</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.083</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.188</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.202</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.321</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.251</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.384</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.223</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.357</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.212</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.272</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.399</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.295</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.467</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.331</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.458</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.331</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.458</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.681</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.234</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.681</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.045</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.033</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>